--- a/Data/Tracheal_donor_metadata.xlsx
+++ b/Data/Tracheal_donor_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacksonna/Desktop/ITLN1/REVISION/2024-01-05-GettingCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacksonna/Desktop/ITLN1/REVISION/2024-01-05-GettingCode/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22040A4-63C7-6341-82A3-52160B4BBCCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B201ACC-2939-F944-80B3-E49C9B7ACF1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="1800" windowWidth="17720" windowHeight="15500" xr2:uid="{AC981123-D38D-AF48-8B8E-C3D6D727698A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>T72</t>
   </si>
@@ -49,6 +49,36 @@
   </si>
   <si>
     <t>Donor ID</t>
+  </si>
+  <si>
+    <t>T79</t>
+  </si>
+  <si>
+    <t>T80</t>
+  </si>
+  <si>
+    <t>T83</t>
+  </si>
+  <si>
+    <t>T87</t>
+  </si>
+  <si>
+    <t>T163</t>
+  </si>
+  <si>
+    <t>T164</t>
+  </si>
+  <si>
+    <t>T165</t>
+  </si>
+  <si>
+    <t>T169</t>
+  </si>
+  <si>
+    <t>T171</t>
+  </si>
+  <si>
+    <t>T176</t>
   </si>
 </sst>
 </file>
@@ -99,9 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,11 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FBA54A-A1A5-AB45-9B37-705FD779EE2F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -470,6 +501,116 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
